--- a/data/output/微信图片_20250227193150(1).xlsx
+++ b/data/output/微信图片_20250227193150(1).xlsx
@@ -1,18 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -172,94 +187,374 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <sz val="11.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -274,185 +569,21 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border/>
-    <border>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -462,106 +593,814 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <top style="thin"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="thin"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.4453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.19140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.18359375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.4453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.4453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.4453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="6.4453125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="6.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.44166666666667" customWidth="1"/>
+    <col min="2" max="2" width="27.3916666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.1916666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.18333333333333" customWidth="1"/>
+    <col min="5" max="9" width="6.44166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -619,7 +1458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -648,7 +1487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -677,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -706,7 +1545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -722,8 +1561,8 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
@@ -735,7 +1574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -764,7 +1603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="27" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -793,7 +1632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -822,7 +1661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -851,16 +1690,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="27" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
@@ -870,31 +1709,32 @@
       <c r="H11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="5">
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:I12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/output/微信图片_20250227193150(1).xlsx
+++ b/data/output/微信图片_20250227193150(1).xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+  <si>
+    <t xml:space="preserve">guie </t>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -38,9 +41,6 @@
     <t>商品全名</t>
   </si>
   <si>
-    <t>规格</t>
-  </si>
-  <si>
     <t>单位</t>
   </si>
   <si>
@@ -62,10 +62,7 @@
     <t>6973497202346</t>
   </si>
   <si>
-    <t>无糖茶栀栀乌龙</t>
-  </si>
-  <si>
-    <t>1*15</t>
+    <t>无糖茶栀栀乌龙*15入纸箱</t>
   </si>
   <si>
     <t>件</t>
@@ -83,7 +80,7 @@
     <t>6925019900087</t>
   </si>
   <si>
-    <t>无糖茶茉莉龙井</t>
+    <t>无糖茶茉莉龙井16入纸箱</t>
   </si>
   <si>
     <t>副</t>
@@ -113,7 +110,7 @@
     <t>6873497204449</t>
   </si>
   <si>
-    <t>450ml轻乳茶桂花乌龙</t>
+    <t>450ml轻乳茶桂花乌龙18纸箱</t>
   </si>
   <si>
     <t>65</t>
@@ -125,10 +122,7 @@
     <t>6973497204432</t>
   </si>
   <si>
-    <t>450ml轻乳茶大红袍乌龙</t>
-  </si>
-  <si>
-    <t>1*6*15</t>
+    <t>450ml轻乳茶大红袍乌龙12入纸箱</t>
   </si>
   <si>
     <t>提</t>
@@ -158,10 +152,10 @@
     <t>9</t>
   </si>
   <si>
+    <t>6973497202884</t>
+  </si>
+  <si>
     <t>无糖茶（单瓶）</t>
-  </si>
-  <si>
-    <t>1*9*8</t>
   </si>
   <si>
     <t>盒</t>
@@ -171,9 +165,6 @@
 叁佰伍拾元整</t>
   </si>
   <si>
-    <t>总计件数：</t>
-  </si>
-  <si>
     <t>81</t>
   </si>
   <si>
@@ -184,9 +175,6 @@
   </si>
   <si>
     <t>仓库地址：华府机动车检测站内</t>
-  </si>
-  <si>
-    <t>联系电话：13980567256</t>
   </si>
 </sst>
 </file>
@@ -700,7 +688,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1396,131 +1384,99 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.44166666666667" customWidth="1"/>
     <col min="2" max="2" width="27.3916666666667" customWidth="1"/>
     <col min="3" max="3" width="30.1916666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.18333333333333" customWidth="1"/>
-    <col min="5" max="9" width="6.44166666666667" customWidth="1"/>
+    <col min="4" max="8" width="6.44166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -1529,24 +1485,21 @@
         <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -1558,24 +1511,21 @@
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1583,83 +1533,77 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -1668,84 +1612,96 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>38</v>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" ht="27" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" ht="27" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H12:I12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
